--- a/BoundyShooter/BoundyShooter/Content/map01.xlsx
+++ b/BoundyShooter/BoundyShooter/Content/map01.xlsx
@@ -24,7 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -425,15 +430,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J54" sqref="J54"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -483,10 +488,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -533,10 +538,10 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -583,10 +588,10 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -633,10 +638,10 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -683,10 +688,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -733,10 +738,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -783,10 +788,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -833,10 +838,10 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -883,10 +888,10 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -933,10 +938,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -983,10 +988,10 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1033,10 +1038,10 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1083,10 +1088,10 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1133,10 +1138,10 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1183,10 +1188,10 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1233,10 +1238,10 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1283,10 +1288,10 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1333,10 +1338,10 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1383,10 +1388,10 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1433,10 +1438,10 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1483,10 +1488,10 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1533,10 +1538,10 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1583,10 +1588,10 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1633,10 +1638,10 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1683,10 +1688,10 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1733,10 +1738,10 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1783,10 +1788,10 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1833,10 +1838,10 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1883,10 +1888,10 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1933,10 +1938,10 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1983,10 +1988,10 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -2033,10 +2038,10 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -2083,10 +2088,10 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -2133,10 +2138,10 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -2183,10 +2188,10 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -2233,10 +2238,10 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2283,10 +2288,10 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -2333,10 +2338,10 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -2383,10 +2388,10 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -2433,7 +2438,7 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -2483,10 +2488,10 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -2533,10 +2538,10 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -2583,10 +2588,10 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -2633,10 +2638,10 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -2683,10 +2688,10 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -2733,10 +2738,10 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -2783,10 +2788,10 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -2833,10 +2838,10 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -2883,10 +2888,10 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -2933,10 +2938,10 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -2983,10 +2988,10 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -3033,10 +3038,10 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -3083,10 +3088,10 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -3133,7 +3138,7 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -3183,10 +3188,10 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -3233,10 +3238,10 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -3283,10 +3288,10 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -3333,10 +3338,10 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -3383,10 +3388,10 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -3433,10 +3438,10 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -3456,7 +3461,7 @@
       <c r="H61">
         <v>0</v>
       </c>
-      <c r="I61">
+      <c r="I61" t="s">
         <v>0</v>
       </c>
       <c r="J61">
@@ -3483,10 +3488,10 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -3533,10 +3538,10 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -3583,7 +3588,7 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B64">
         <v>1</v>

--- a/BoundyShooter/BoundyShooter/Content/map01.xlsx
+++ b/BoundyShooter/BoundyShooter/Content/map01.xlsx
@@ -430,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1256,13 +1256,13 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1718,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2441,16 +2441,16 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -2468,19 +2468,19 @@
         <v>1</v>
       </c>
       <c r="K41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P41">
         <v>1</v>

--- a/BoundyShooter/BoundyShooter/Content/map01.xlsx
+++ b/BoundyShooter/BoundyShooter/Content/map01.xlsx
@@ -24,9 +24,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
   <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>B</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -428,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P64"/>
+  <dimension ref="A1:P74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -711,8 +720,8 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6">
-        <v>0</v>
+      <c r="I6" t="s">
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -758,8 +767,8 @@
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7">
-        <v>0</v>
+      <c r="H7" t="s">
+        <v>3</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1553,13 +1562,13 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1577,10 +1586,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23">
         <v>1</v>
@@ -1702,8 +1711,8 @@
       <c r="E26">
         <v>0</v>
       </c>
-      <c r="F26">
-        <v>0</v>
+      <c r="F26" t="s">
+        <v>1</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1718,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -1797,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1818,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -1947,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2453,19 +2462,19 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -2503,19 +2512,19 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -2749,7 +2758,7 @@
       <c r="D47">
         <v>0</v>
       </c>
-      <c r="E47">
+      <c r="E47" t="s">
         <v>0</v>
       </c>
       <c r="F47">
@@ -2827,10 +2836,10 @@
         <v>0</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P48">
         <v>1</v>
@@ -2959,13 +2968,13 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -3009,13 +3018,13 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -3059,13 +3068,13 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -3141,16 +3150,16 @@
         <v>1</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -3327,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="N58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P58">
         <v>1</v>
@@ -3462,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -3591,48 +3600,548 @@
         <v>1</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71" t="s">
+        <v>2</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <v>1</v>
+      </c>
+      <c r="P74">
         <v>1</v>
       </c>
     </row>

--- a/BoundyShooter/BoundyShooter/Content/map01.xlsx
+++ b/BoundyShooter/BoundyShooter/Content/map01.xlsx
@@ -24,18 +24,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
-  <si>
-    <t>B</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
   <si>
     <t>E</t>
   </si>
   <si>
-    <t>P</t>
+    <t>EB</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>B</t>
+    <t>P</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -440,7 +438,7 @@
   <dimension ref="A1:P74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -721,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -768,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1712,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2758,7 +2756,7 @@
       <c r="D47">
         <v>0</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
@@ -3471,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -3770,8 +3768,8 @@
       <c r="H67">
         <v>0</v>
       </c>
-      <c r="I67">
-        <v>0</v>
+      <c r="I67" t="s">
+        <v>2</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -3970,8 +3968,8 @@
       <c r="H71">
         <v>0</v>
       </c>
-      <c r="I71" t="s">
-        <v>2</v>
+      <c r="I71">
+        <v>0</v>
       </c>
       <c r="J71">
         <v>0</v>

--- a/BoundyShooter/BoundyShooter/Content/map01.xlsx
+++ b/BoundyShooter/BoundyShooter/Content/map01.xlsx
@@ -24,16 +24,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="9">
   <si>
     <t>E</t>
   </si>
   <si>
     <t>EB</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>E</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>P</t>
+    <t>w</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -88,7 +110,21 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -435,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P74"/>
+  <dimension ref="A1:P76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N59" sqref="N59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -718,7 +754,7 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
@@ -765,8 +801,8 @@
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7" t="s">
-        <v>1</v>
+      <c r="H7">
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1018,8 +1054,8 @@
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="I12">
-        <v>0</v>
+      <c r="I12" t="s">
+        <v>1</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1166,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1210,13 +1246,13 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1263,13 +1299,13 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1313,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1560,13 +1596,13 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1584,10 +1620,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>1</v>
@@ -1660,13 +1696,13 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1684,10 +1720,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25">
         <v>1</v>
@@ -1709,7 +1745,7 @@
       <c r="E26">
         <v>0</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
@@ -1775,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -1809,7 +1845,7 @@
       <c r="E28">
         <v>0</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="s">
         <v>0</v>
       </c>
       <c r="G28">
@@ -1825,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -1854,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1875,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -1904,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1925,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -2004,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2054,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2077,8 +2113,8 @@
       <c r="K33">
         <v>0</v>
       </c>
-      <c r="L33">
-        <v>0</v>
+      <c r="L33" t="s">
+        <v>3</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -2247,35 +2283,35 @@
       <c r="A37">
         <v>1</v>
       </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" t="s">
+        <v>5</v>
+      </c>
+      <c r="H37" t="s">
+        <v>5</v>
+      </c>
+      <c r="I37" t="s">
+        <v>5</v>
+      </c>
+      <c r="J37" t="s">
+        <v>5</v>
+      </c>
+      <c r="K37" t="s">
+        <v>5</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -2510,19 +2546,19 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -2530,8 +2566,8 @@
       <c r="L42">
         <v>0</v>
       </c>
-      <c r="M42">
-        <v>0</v>
+      <c r="M42" t="s">
+        <v>4</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -2580,8 +2616,8 @@
       <c r="L43">
         <v>0</v>
       </c>
-      <c r="M43">
-        <v>0</v>
+      <c r="M43" t="s">
+        <v>4</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -2610,19 +2646,19 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -2630,8 +2666,8 @@
       <c r="L44">
         <v>0</v>
       </c>
-      <c r="M44">
-        <v>0</v>
+      <c r="M44" t="s">
+        <v>4</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -2659,20 +2695,20 @@
       <c r="E45">
         <v>0</v>
       </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
+      <c r="F45" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" t="s">
+        <v>6</v>
+      </c>
+      <c r="I45" t="s">
+        <v>6</v>
+      </c>
+      <c r="J45" t="s">
+        <v>6</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -2680,8 +2716,8 @@
       <c r="L45">
         <v>0</v>
       </c>
-      <c r="M45">
-        <v>0</v>
+      <c r="M45" t="s">
+        <v>4</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -2712,8 +2748,8 @@
       <c r="F46">
         <v>0</v>
       </c>
-      <c r="G46">
-        <v>0</v>
+      <c r="G46" t="s">
+        <v>7</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -2730,8 +2766,8 @@
       <c r="L46">
         <v>0</v>
       </c>
-      <c r="M46">
-        <v>0</v>
+      <c r="M46" t="s">
+        <v>4</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -2762,8 +2798,8 @@
       <c r="F47">
         <v>0</v>
       </c>
-      <c r="G47">
-        <v>0</v>
+      <c r="G47" t="s">
+        <v>7</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -2812,8 +2848,8 @@
       <c r="F48">
         <v>0</v>
       </c>
-      <c r="G48">
-        <v>0</v>
+      <c r="G48" t="s">
+        <v>6</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -2862,8 +2898,8 @@
       <c r="F49">
         <v>0</v>
       </c>
-      <c r="G49">
-        <v>0</v>
+      <c r="G49" t="s">
+        <v>4</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -2912,8 +2948,8 @@
       <c r="F50">
         <v>0</v>
       </c>
-      <c r="G50">
-        <v>0</v>
+      <c r="G50" t="s">
+        <v>4</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -2962,8 +2998,8 @@
       <c r="F51">
         <v>0</v>
       </c>
-      <c r="G51">
-        <v>0</v>
+      <c r="G51" t="s">
+        <v>4</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -3268,8 +3304,8 @@
       <c r="H57">
         <v>0</v>
       </c>
-      <c r="I57">
-        <v>0</v>
+      <c r="I57" t="s">
+        <v>3</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -3334,10 +3370,10 @@
         <v>0</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P58">
         <v>1</v>
@@ -3434,10 +3470,10 @@
         <v>0</v>
       </c>
       <c r="N60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P60">
         <v>1</v>
@@ -3468,7 +3504,7 @@
       <c r="H61">
         <v>0</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I61">
         <v>0</v>
       </c>
       <c r="J61">
@@ -3483,11 +3519,11 @@
       <c r="M61">
         <v>0</v>
       </c>
-      <c r="N61">
-        <v>0</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
+      <c r="N61" t="s">
+        <v>8</v>
+      </c>
+      <c r="O61" t="s">
+        <v>8</v>
       </c>
       <c r="P61">
         <v>1</v>
@@ -3648,16 +3684,16 @@
         <v>1</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -3768,8 +3804,8 @@
       <c r="H67">
         <v>0</v>
       </c>
-      <c r="I67" t="s">
-        <v>2</v>
+      <c r="I67">
+        <v>0</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -3868,8 +3904,8 @@
       <c r="H69">
         <v>0</v>
       </c>
-      <c r="I69">
-        <v>0</v>
+      <c r="I69" t="s">
+        <v>2</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -4098,85 +4134,191 @@
         <v>1</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <v>1</v>
+      </c>
+      <c r="P76">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
       <formula>"E2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"g"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>"E"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"fg"</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"w"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>4</formula>
+      <formula>"EB"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BoundyShooter/BoundyShooter/Content/map01.xlsx
+++ b/BoundyShooter/BoundyShooter/Content/map01.xlsx
@@ -473,15 +473,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N59" sqref="N59"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AI25" sqref="AI25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -526,12 +526,12 @@
         <v>1</v>
       </c>
       <c r="P1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -576,12 +576,12 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -626,12 +626,12 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -676,12 +676,12 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -726,12 +726,12 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -776,12 +776,12 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -826,12 +826,12 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -876,12 +876,12 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -926,12 +926,12 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -976,12 +976,12 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1026,12 +1026,12 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1076,12 +1076,12 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1126,12 +1126,12 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1176,12 +1176,12 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1226,12 +1226,12 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1276,12 +1276,12 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1326,12 +1326,12 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1376,12 +1376,12 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1426,12 +1426,12 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1476,12 +1476,12 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1526,12 +1526,12 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1576,12 +1576,12 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1626,12 +1626,12 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1676,12 +1676,12 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1726,12 +1726,12 @@
         <v>1</v>
       </c>
       <c r="P25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1776,12 +1776,12 @@
         <v>0</v>
       </c>
       <c r="P26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1826,12 +1826,12 @@
         <v>0</v>
       </c>
       <c r="P27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1876,12 +1876,12 @@
         <v>0</v>
       </c>
       <c r="P28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1926,12 +1926,12 @@
         <v>0</v>
       </c>
       <c r="P29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1976,12 +1976,12 @@
         <v>0</v>
       </c>
       <c r="P30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2026,12 +2026,12 @@
         <v>0</v>
       </c>
       <c r="P31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2076,12 +2076,12 @@
         <v>0</v>
       </c>
       <c r="P32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -2126,12 +2126,12 @@
         <v>0</v>
       </c>
       <c r="P33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2176,12 +2176,12 @@
         <v>0</v>
       </c>
       <c r="P34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -2226,12 +2226,12 @@
         <v>0</v>
       </c>
       <c r="P35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2276,12 +2276,12 @@
         <v>0</v>
       </c>
       <c r="P36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B37" t="s">
         <v>4</v>
@@ -2326,12 +2326,12 @@
         <v>0</v>
       </c>
       <c r="P37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2376,12 +2376,12 @@
         <v>0</v>
       </c>
       <c r="P38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2426,12 +2426,12 @@
         <v>0</v>
       </c>
       <c r="P39">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2476,12 +2476,12 @@
         <v>0</v>
       </c>
       <c r="P40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2526,12 +2526,12 @@
         <v>0</v>
       </c>
       <c r="P41">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2576,12 +2576,12 @@
         <v>0</v>
       </c>
       <c r="P42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2626,12 +2626,12 @@
         <v>0</v>
       </c>
       <c r="P43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2676,12 +2676,12 @@
         <v>0</v>
       </c>
       <c r="P44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2726,12 +2726,12 @@
         <v>0</v>
       </c>
       <c r="P45">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2776,12 +2776,12 @@
         <v>0</v>
       </c>
       <c r="P46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2826,12 +2826,12 @@
         <v>0</v>
       </c>
       <c r="P47">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2876,12 +2876,12 @@
         <v>0</v>
       </c>
       <c r="P48">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2926,12 +2926,12 @@
         <v>0</v>
       </c>
       <c r="P49">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2976,12 +2976,12 @@
         <v>0</v>
       </c>
       <c r="P50">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -3026,12 +3026,12 @@
         <v>0</v>
       </c>
       <c r="P51">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -3076,12 +3076,12 @@
         <v>0</v>
       </c>
       <c r="P52">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -3126,12 +3126,12 @@
         <v>0</v>
       </c>
       <c r="P53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -3176,12 +3176,12 @@
         <v>0</v>
       </c>
       <c r="P54">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -3226,12 +3226,12 @@
         <v>0</v>
       </c>
       <c r="P55">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -3276,12 +3276,12 @@
         <v>0</v>
       </c>
       <c r="P56">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -3326,12 +3326,12 @@
         <v>0</v>
       </c>
       <c r="P57">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -3376,12 +3376,12 @@
         <v>0</v>
       </c>
       <c r="P58">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3426,12 +3426,12 @@
         <v>0</v>
       </c>
       <c r="P59">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3476,12 +3476,12 @@
         <v>1</v>
       </c>
       <c r="P60">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3526,12 +3526,12 @@
         <v>8</v>
       </c>
       <c r="P61">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3576,12 +3576,12 @@
         <v>0</v>
       </c>
       <c r="P62">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3626,12 +3626,12 @@
         <v>0</v>
       </c>
       <c r="P63">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3676,12 +3676,12 @@
         <v>0</v>
       </c>
       <c r="P64">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3726,12 +3726,12 @@
         <v>0</v>
       </c>
       <c r="P65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3776,12 +3776,12 @@
         <v>0</v>
       </c>
       <c r="P66">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3826,12 +3826,12 @@
         <v>0</v>
       </c>
       <c r="P67">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3876,12 +3876,12 @@
         <v>0</v>
       </c>
       <c r="P68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3926,12 +3926,12 @@
         <v>0</v>
       </c>
       <c r="P69">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3976,12 +3976,12 @@
         <v>0</v>
       </c>
       <c r="P70">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -4026,12 +4026,12 @@
         <v>0</v>
       </c>
       <c r="P71">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -4076,12 +4076,12 @@
         <v>0</v>
       </c>
       <c r="P72">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -4126,12 +4126,12 @@
         <v>0</v>
       </c>
       <c r="P73">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -4176,12 +4176,12 @@
         <v>0</v>
       </c>
       <c r="P74">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -4226,12 +4226,12 @@
         <v>0</v>
       </c>
       <c r="P75">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -4276,7 +4276,7 @@
         <v>1</v>
       </c>
       <c r="P76">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
